--- a/Semestre 2/Administración y Valoración Financiera/1-EJERCICIO INTRODUCTORIO USANDO EXCEL estudiantes_Corto.xlsx
+++ b/Semestre 2/Administración y Valoración Financiera/1-EJERCICIO INTRODUCTORIO USANDO EXCEL estudiantes_Corto.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\BOGOTÁ 03.2023\CLASE4\Envío estudiantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bc701a07c40c19e/Desktop/NICO/MAF/Semestre 2/Administración y Valoración Financiera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7BDB37-6D68-45D8-B73D-36EDA6023F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{5C7BDB37-6D68-45D8-B73D-36EDA6023F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D747737B-6FC4-4D7B-848D-550F25F9E4AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="906" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ejercicio introductorio excel" sheetId="23" r:id="rId1"/>
     <sheet name="TALLER" sheetId="24" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>FCL</t>
   </si>
@@ -61,18 +74,47 @@
   <si>
     <t>3- Usted es accionista de esta compañía y busca valor a largo plazo, ¿continuaría como accionista? Explique.</t>
   </si>
+  <si>
+    <t>NVP FCL (HE)</t>
+  </si>
+  <si>
+    <t>NVP FCL (HNE)</t>
+  </si>
+  <si>
+    <t>Valor Empresa FCL</t>
+  </si>
+  <si>
+    <t>XNPV</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>Yo, como accionista de la compañía, continuaría en la compañía hasta el 2027 que es donde la empresa alcanza su mayor valor y en ese momento vendería mis acciones.</t>
+  </si>
+  <si>
+    <t>Sin embargo, vale la pena recalcar el riesgo de la compañía al no tener una valorización o tener una muy baja frente a la inflación.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -128,13 +170,19 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -552,7 +600,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,6 +609,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -621,11 +670,10 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,15 +711,18 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,10 +739,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Millares [0]" xfId="7" builtinId="6"/>
     <cellStyle name="Millares [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Millares 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda" xfId="8" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -716,6 +768,949 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Valor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> de la Empresa</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ejercicio introductorio excel'!$B$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55899.352475248146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61097.992255446217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60336.266677452011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63359.315478455057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67152.078817951377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70925.949148020838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74420.76959909749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77982.019171813561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81618.702954792199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88614.650329587879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92743.586497890312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-412A-4B08-A5AB-DE977BB4DCAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1098254144"/>
+        <c:axId val="1996999184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1098254144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1996999184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1996999184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098254144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CDB85C-9046-16D5-8AD1-2EF01AFA5AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,26 +2034,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC82C309-D781-464E-A572-200FF5762E3E}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.69921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.19921875" style="1"/>
-    <col min="15" max="16" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="7.69140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.23046875" style="1"/>
+    <col min="15" max="16" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.19921875" style="1"/>
+    <col min="18" max="16384" width="11.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1130,54 +2125,54 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>44926</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <f t="shared" ref="C4:L4" si="1">DATE(C3,12,31)</f>
         <v>45291</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <f t="shared" si="1"/>
         <v>45657</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <f t="shared" si="1"/>
         <v>46022</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f t="shared" si="1"/>
         <v>46387</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <f t="shared" si="1"/>
         <v>46752</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <f t="shared" si="1"/>
         <v>47118</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="37">
         <f t="shared" si="1"/>
         <v>47483</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <f t="shared" si="1"/>
         <v>47848</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="37">
         <f t="shared" si="1"/>
         <v>48213</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="38">
         <f t="shared" si="1"/>
         <v>48579</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="39">
         <f>L4</f>
         <v>48579</v>
       </c>
@@ -1185,7 +2180,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1222,12 +2217,15 @@
       <c r="L5" s="27">
         <v>4022</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="18">
+        <f>L5*(1+L7)/(L6-L7)</f>
+        <v>88721.586497890312</v>
+      </c>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +2244,7 @@
       </c>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +2263,7 @@
       </c>
       <c r="M7" s="17"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1273,73 +2271,153 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-    </row>
-    <row r="15" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-    </row>
-    <row r="23" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-    </row>
-    <row r="30" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-    </row>
-    <row r="31" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="54">
+        <f>NPV(L6,C5:L5)</f>
+        <v>19470.648714769133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="54">
+        <f>PV(L6,COUNT(C5:L5),,-M5)</f>
+        <v>36460.924774596468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="55">
+        <f>B11+B12</f>
+        <v>55931.573489365604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="55">
+        <f>XNPV($L$6,B5:$M$5,B4:$M$4)</f>
+        <v>55899.352475248146</v>
+      </c>
+      <c r="C15" s="55">
+        <f>XNPV($L$6,C5:$M$5,C4:$M$4)</f>
+        <v>61097.992255446217</v>
+      </c>
+      <c r="D15" s="55">
+        <f>XNPV($L$6,D5:$M$5,D4:$M$4)</f>
+        <v>60336.266677452011</v>
+      </c>
+      <c r="E15" s="55">
+        <f>XNPV($L$6,E5:$M$5,E4:$M$4)</f>
+        <v>63359.315478455057</v>
+      </c>
+      <c r="F15" s="55">
+        <f>XNPV($L$6,F5:$M$5,F4:$M$4)</f>
+        <v>67152.078817951377</v>
+      </c>
+      <c r="G15" s="55">
+        <f>XNPV($L$6,G5:$M$5,G4:$M$4)</f>
+        <v>70925.949148020838</v>
+      </c>
+      <c r="H15" s="55">
+        <f>XNPV($L$6,H5:$M$5,H4:$M$4)</f>
+        <v>74420.76959909749</v>
+      </c>
+      <c r="I15" s="55">
+        <f>XNPV($L$6,I5:$M$5,I4:$M$4)</f>
+        <v>77982.019171813561</v>
+      </c>
+      <c r="J15" s="55">
+        <f>XNPV($L$6,J5:$M$5,J4:$M$4)</f>
+        <v>81618.702954792199</v>
+      </c>
+      <c r="K15" s="55">
+        <f>XNPV($L$6,K5:$M$5,K4:$M$4)</f>
+        <v>88614.650329587879</v>
+      </c>
+      <c r="L15" s="55">
+        <f>XNPV($L$6,L5:$M$5,L4:$M$4)</f>
+        <v>92743.586497890312</v>
+      </c>
+      <c r="M15" s="55">
+        <f>XNPV($L$6,M5:$M$5,M4:$M$4)</f>
+        <v>88721.586497890312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="34"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B11:B12" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1347,25 +2425,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A537BA2-929C-4284-B6FA-F4B78FEC0FE1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="7" width="7.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="1"/>
-    <col min="10" max="11" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="7.69140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.23046875" style="1"/>
+    <col min="10" max="11" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.19921875" style="1"/>
+    <col min="13" max="16384" width="11.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
@@ -1373,11 +2451,11 @@
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
       <c r="G2" s="63"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +2482,7 @@
         <f>F3+1</f>
         <v>2027</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <f>G3</f>
         <v>2027</v>
       </c>
@@ -1412,35 +2490,35 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <f t="shared" ref="B4:G4" si="1">DATE(B3,12,31)</f>
         <v>44926</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <f t="shared" si="1"/>
         <v>45291</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <f t="shared" si="1"/>
         <v>45657</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <f t="shared" si="1"/>
         <v>46022</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f t="shared" si="1"/>
         <v>46387</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f t="shared" si="1"/>
         <v>46752</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <f>G4</f>
         <v>46752</v>
       </c>
@@ -1448,14 +2526,14 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>0</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>3025</v>
       </c>
       <c r="D5" s="26">
@@ -1470,119 +2548,186 @@
       <c r="G5" s="27">
         <v>1800</v>
       </c>
-      <c r="H5" s="45"/>
+      <c r="H5" s="44">
+        <f>G5*(1+G7)/(G6-G7)</f>
+        <v>37080</v>
+      </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="28">
         <v>0.08</v>
       </c>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="29">
         <v>0.03</v>
       </c>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="H7" s="50"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="52">
         <f>B4</f>
         <v>44926</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="52">
         <f>F4</f>
         <v>46387</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <f>NPV(G6,C5:G5)</f>
+        <v>10205.518659017023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <f>PV(G6,COUNT(C5:G5),,-H5)</f>
+        <v>25236.024946011563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="56">
+        <f>B14+B15</f>
+        <v>35441.543605028586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="56">
+        <f>XNPV($G$6,B5:$H$5,B4:$H$4)</f>
+        <v>35434.661985570216</v>
+      </c>
+      <c r="C18" s="33">
+        <f>XNPV($G$6,C5:$H$5,C4:$H$4)</f>
+        <v>38269.434944415836</v>
+      </c>
+      <c r="D18" s="33">
+        <f>XNPV($G$6,D5:$H$5,D4:$H$4)</f>
+        <v>38072.016460905346</v>
+      </c>
+      <c r="E18" s="33">
+        <f>XNPV($G$6,E5:$H$5,E4:$H$4)</f>
+        <v>37877.777777777774</v>
+      </c>
+      <c r="F18" s="56">
+        <f>XNPV($G$6,F5:$H$5,F4:$H$4)</f>
+        <v>38099.999999999993</v>
+      </c>
+      <c r="G18" s="33">
+        <f>XNPV($G$6,G5:$H$5,G4:$H$4)</f>
+        <v>38880</v>
+      </c>
+      <c r="H18" s="33">
+        <f>XNPV($G$6,H5:$H$5,H4:$H$4)</f>
+        <v>37080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
+      <c r="B21" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="31"/>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1590,5 +2735,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B14:B15" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Semestre 2/Administración y Valoración Financiera/1-EJERCICIO INTRODUCTORIO USANDO EXCEL estudiantes_Corto.xlsx
+++ b/Semestre 2/Administración y Valoración Financiera/1-EJERCICIO INTRODUCTORIO USANDO EXCEL estudiantes_Corto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bc701a07c40c19e/Desktop/NICO/MAF/Semestre 2/Administración y Valoración Financiera/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 2\Administración y Valoración Financiera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{5C7BDB37-6D68-45D8-B73D-36EDA6023F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D747737B-6FC4-4D7B-848D-550F25F9E4AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52783C2-397C-42AB-BCA0-FE40D17933D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="906" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,10 +1709,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2037,7 +2033,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2426,7 +2422,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2735,8 +2731,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B14:B15" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>